--- a/abc.xlsx
+++ b/abc.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,9 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -37,9 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="2">
@@ -65,7 +66,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
